--- a/open_sessions/open_Technical_seminar.xlsx
+++ b/open_sessions/open_Technical_seminar.xlsx
@@ -495,10 +495,10 @@
         <v>69</v>
       </c>
       <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
         <v>11</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,10 +531,10 @@
         <v>152</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         <v>162</v>
       </c>
       <c r="E4" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -600,17 +600,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="E5" t="n">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sessions Room A2</t>
+          <t>Sessions Room E103</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -639,10 +639,10 @@
         <v>205</v>
       </c>
       <c r="E6" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F6" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -675,10 +675,10 @@
         <v>205</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -747,10 +747,10 @@
         <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Ok</t>
         </is>
       </c>
     </row>
@@ -783,10 +783,10 @@
         <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -819,10 +819,10 @@
         <v>66</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         <v>162</v>
       </c>
       <c r="E13" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F13" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -960,17 +960,17 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Labs 10</t>
+          <t>Sessions Room D401</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sessions Room E108</t>
+          <t>Sessions Room G105</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1032,17 +1032,17 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sessions Room E103</t>
+          <t>Sessions Room A2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1071,10 +1071,10 @@
         <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Ok</t>
         </is>
       </c>
     </row>
@@ -1107,10 +1107,10 @@
         <v>44</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>176</v>
       </c>
       <c r="E20" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" t="n">
         <v>72</v>
@@ -1179,10 +1179,10 @@
         <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1215,10 +1215,10 @@
         <v>57</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1251,10 +1251,10 @@
         <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Full</t>
         </is>
       </c>
     </row>
@@ -1323,10 +1323,10 @@
         <v>30</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1359,10 +1359,10 @@
         <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1392,22 +1392,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sessions Room G106</t>
+          <t>Sessions Room 11</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Ok</t>
         </is>
       </c>
     </row>
@@ -1431,10 +1431,10 @@
         <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Full</t>
         </is>
       </c>
     </row>
@@ -1467,10 +1467,10 @@
         <v>180</v>
       </c>
       <c r="E29" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F29" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1503,10 +1503,10 @@
         <v>95</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1539,10 +1539,10 @@
         <v>162</v>
       </c>
       <c r="E31" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F31" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1575,10 +1575,10 @@
         <v>95</v>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         <v>205</v>
       </c>
       <c r="E33" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F33" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1683,10 +1683,10 @@
         <v>162</v>
       </c>
       <c r="E35" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1719,10 +1719,10 @@
         <v>66</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Ok</t>
         </is>
       </c>
     </row>
@@ -1755,10 +1755,10 @@
         <v>18</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1791,10 +1791,10 @@
         <v>180</v>
       </c>
       <c r="E38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F38" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1827,10 +1827,10 @@
         <v>60</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1860,17 +1860,17 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sessions Room D401</t>
+          <t>Sessions Room D402</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1899,10 +1899,10 @@
         <v>24</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1971,10 +1971,10 @@
         <v>180</v>
       </c>
       <c r="E43" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F43" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2007,10 +2007,10 @@
         <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F44" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2043,10 +2043,10 @@
         <v>152</v>
       </c>
       <c r="E45" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F45" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2079,10 +2079,10 @@
         <v>162</v>
       </c>
       <c r="E46" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F46" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2115,10 +2115,10 @@
         <v>60</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sessions Room G106</t>
+          <t>Sessions Room G107</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2184,22 +2184,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sessions Room 11</t>
+          <t>Sessions Room G106</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Ok</t>
         </is>
       </c>
     </row>
@@ -2259,10 +2259,10 @@
         <v>162</v>
       </c>
       <c r="E51" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         <v>57</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2331,19 +2331,19 @@
         <v>22</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Sessions Room G107</t>
+          <t>Labs 6</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Ok</t>
         </is>
       </c>
     </row>
@@ -2367,14 +2367,14 @@
         <v>57</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sessions Room G105</t>
+          <t>Sessions Room E108</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">

--- a/open_sessions/open_Technical_seminar.xlsx
+++ b/open_sessions/open_Technical_seminar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TECSPG-3204 - Advanced ASR 9000 Operation and Troubleshooting</t>
+          <t>TECENT-2150 - 6+3=100! Use IPv6 and Python 3 to transform how you do networking</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,33 +488,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11</v>
+        <v>176</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sessions Room E107</t>
+          <t>Hall 8 - Room 11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TECTRS-3477 - Advanced Troubleshooting SD-WAN</t>
+          <t>TECDCN-2464 - A Deep Dive into ACI Multi-Site</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,33 +528,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00 - 18:30</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>152</v>
-      </c>
-      <c r="E3" t="n">
-        <v>73</v>
-      </c>
-      <c r="F3" t="n">
-        <v>48</v>
+        <v>392</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sessions Room E102</t>
+          <t>Elicium 2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TECARC-2407 - Architecture, Deployments, and Troubleshooting Deep Dive for Catalyst 8000 Series Edge Platforms</t>
+          <t>TECDCN-2477 - A Deep Dive into VXLAN Multi-Site</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,29 +572,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>162</v>
-      </c>
-      <c r="E4" t="n">
-        <v>129</v>
-      </c>
-      <c r="F4" t="n">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Elicium 2</t>
+          <t>Hall 8 - Room 1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TECDCN-2495 - Building Clouds for Enterprise Applications with Intersight, UCS X-Series and ACI in an air-gapped Industry</t>
+          <t>TECENT-3688 - Advanced SD-Access Troubleshooting</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -596,33 +608,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>176</v>
-      </c>
-      <c r="E5" t="n">
-        <v>137</v>
-      </c>
-      <c r="F5" t="n">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sessions Room E103</t>
+          <t>Hall 8 - Room 4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TECOPS-2004 - Campus Automation: How to Design, Provision and Manage Campus Networks using Cisco DNA Center Intent</t>
+          <t>TECTRS-3477 - Advanced Troubleshooting SD-WAN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -632,33 +648,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>205</v>
-      </c>
-      <c r="E6" t="n">
-        <v>115</v>
-      </c>
-      <c r="F6" t="n">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sessions Room A2</t>
+          <t>Lab 1 - E103</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TECARC-2446 - Catalyst 9000 Switching Family Architecture</t>
+          <t>TECARC-2407 - Architecture, Deployments, and Troubleshooting deep dive for Catalyst 8000 Series Edge Platforms</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,26 +688,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>205</v>
-      </c>
-      <c r="E7" t="n">
-        <v>126</v>
-      </c>
-      <c r="F7" t="n">
-        <v>61</v>
+        <v>176</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sessions Room A3</t>
+          <t>Hall 8 - Room 6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -704,26 +728,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00 - 18:30</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+        <v>176</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sessions Room G107</t>
+          <t>Hall 8 - Room 7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -740,26 +768,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00 - 18:30</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15</v>
+        <v>176</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sessions Room D404</t>
+          <t>Hall 8 - Room 10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -776,33 +808,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00 - 18:30</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12</v>
-      </c>
-      <c r="F10" t="n">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sessions Room G103</t>
+          <t>Hall 8 - Room 11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TECSPG-2014 - Cisco Converged SDN Transport</t>
+          <t>TECSPG-2003 - Cisco 8000 Powered by Silicon One &amp; IOS XR: Architecture, positioning, deployments, and troubleshooting deep dive</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -812,33 +848,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
-      </c>
-      <c r="E11" t="n">
-        <v>34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sessions Room G109</t>
+          <t>Session Room D301</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TECCLD-1000 - Cisco DevSecOps(DSO) for Hybrid Cloud: Digital Transformation - Customer Success stories and challenges</t>
+          <t>TECOPS-2158 - Cisco Catalyst Center Out-of-the-Box and Custom Integrations</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -852,29 +892,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15</v>
-      </c>
-      <c r="F12" t="n">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sessions Room D302</t>
+          <t>Lab 4 - E107</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TECSEC-3780 - Cisco SASE for Architects and Implementation Engineers​</t>
+          <t>TECSPG-2014 - Cisco Converged SDN Transport</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -884,33 +928,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:30 - 18:30</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>162</v>
-      </c>
-      <c r="E13" t="n">
-        <v>116</v>
-      </c>
-      <c r="F13" t="n">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Elicium 4</t>
+          <t>Session Room D402</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TECSEC-2780 - Cisco Secure Client - Expanding AnyConnect to Comprehensive Client Security</t>
+          <t>TECSEC-2780 - Cisco Secure Client: from AnyConnect to comprehensive Client Security!</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -920,33 +968,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:30 - 18:30</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16</v>
-      </c>
-      <c r="F14" t="n">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Labs 2</t>
+          <t>Session Room G111</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TECCLD-2307 - Cloud-Native Applications with Infrastructure as Code and Full Stack Observability​</t>
+          <t>TECCOL-2105 - Collaboration Architectures, Moving from the Premise to Cisco Cloud Calling and Collaboration</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -956,33 +1008,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F15" t="n">
-        <v>39</v>
+        <v>176</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sessions Room D401</t>
+          <t>Hall 8 - Room 14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TECCOL-2190 - Collaboration Architectures, from the Premise to Webex Cloud - Covering Meetings, Calling, and Messaging - The full Architecture and Hybrid design direction</t>
+          <t>TECCLD-2407 - Create Your (Multi) Cloud Platform with Infrastructure-as-Code</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -992,33 +1048,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:45 - 18:45</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11</v>
-      </c>
-      <c r="F16" t="n">
-        <v>19</v>
+        <v>176</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sessions Room G105</t>
+          <t>Hall 8 - Room 12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TECENT-3377 - Deep Dive into Cisco SD-WAN - How it Works</t>
+          <t>TECENT-3377 - Deep dive into Cisco SD-WAN - how it works</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1028,33 +1088,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>08:30 - 18:30</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>205</v>
-      </c>
-      <c r="E17" t="n">
-        <v>34</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
+        <v>176</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sessions Room A2</t>
+          <t>Hall 8 - Room 15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TECEWN-2004 - Design, AIOps, &amp; Wireless Assurance: Optimize Your Cisco WiFi 6/6E Networks on On-Prem and Cloud-Based Wireless Architecture</t>
+          <t>TECEWN-2234 - Demystify Wi-Fi : because fundamentals matter</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1064,33 +1128,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13</v>
+        <v>176</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Labs 3</t>
+          <t>Hall 8 - Room 16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TECENS-2001 - Designing High Availability for your Network with Resiliency</t>
+          <t>TECENS-2001 - Designing High Availability for your Wired and Wireless Access Networks</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1100,26 +1168,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:30 - 18:30</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13</v>
+        <v>176</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sessions Room D403</t>
+          <t>Hall 8 - Room 6</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1136,26 +1208,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00 - 18:30</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>176</v>
-      </c>
-      <c r="E20" t="n">
-        <v>127</v>
-      </c>
-      <c r="F20" t="n">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sessions Room E103</t>
+          <t>Session Room D404</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1176,22 +1252,26 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
-      </c>
-      <c r="E21" t="n">
-        <v>18</v>
-      </c>
-      <c r="F21" t="n">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Labs 4</t>
+          <t>Session Room D401</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1208,33 +1288,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15</v>
-      </c>
-      <c r="F22" t="n">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sessions Room G104</t>
+          <t>Lab 6 - G104</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TECOPS-2005 - Didn’t Know That Was There! Hidden Gems in Enterprise Networking</t>
+          <t>TECIOT-2201 - Dive into the depths of Industrial Resiliency Protocols</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1244,33 +1328,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Labs 1</t>
+          <t>Session Room D301</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TECCLD-2394 - Don't be fooled by Full Stack Observability (FSO), the one session you can't afford to miss</t>
+          <t xml:space="preserve">TECCOL-2457 - Enabling Smarter Hybrid Workplaces </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1280,33 +1368,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
-      </c>
-      <c r="E24" t="n">
-        <v>12</v>
-      </c>
-      <c r="F24" t="n">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sessions Room D301</t>
+          <t>Session Room G110</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TECOPS-2003 - Embracing SRE Practices in Infrastructure</t>
+          <t>TECCOL-2072 - Everything you wanted to know about provisioning, authentication and authorization for Cisco Collaboration</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1316,33 +1408,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
-      </c>
-      <c r="E25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F25" t="n">
-        <v>66</v>
+        <v>176</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Labs 1</t>
+          <t>Hall 8 - Room 13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TECSEC-2007 - Find Your Zen with Cisco Secure Workload for Zero Trust Segmentation</t>
+          <t>TECIOT-3994 - From Concept to Deployment: The Remote and Mobile Assets Journey Using IoT Operations Dashboard</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1352,33 +1448,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11</v>
-      </c>
-      <c r="F26" t="n">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Labs 4</t>
+          <t>Session Room D403</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TECOPS-1201 - From Zero to Hero: Cisco Network Service Orchestrator (NSO)</t>
+          <t>TECOPS-2201 - From Zero to Hero: Cisco Network Service Orchestrator (NSO)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1388,26 +1488,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>41</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sessions Room 11</t>
+          <t>Lab 2 - E104</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1424,33 +1528,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sessions Room G110</t>
+          <t>Hall 8 - Room 7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TECOPS-2278 - From Zero to ThousandEyes (super) Hero</t>
+          <t>TECOPS-2278 - From zero to ThousandEyes (super) Hero</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1460,33 +1568,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>180</v>
-      </c>
-      <c r="E29" t="n">
-        <v>117</v>
-      </c>
-      <c r="F29" t="n">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sessions Room A5</t>
+          <t>Lab 1 - E103</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TECOPS-2002 - How to leverage Cisco DNA Center to build a Zero Trust Campus Network</t>
+          <t>TECOPS-2002 - How to leverage Cisco Catalyst Center to build a Zero Trust Campus Network</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1496,33 +1608,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>95</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12</v>
-      </c>
-      <c r="F30" t="n">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sessions Room E105</t>
+          <t>Session Room G103</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TECDCN-2131 - IaC with ACI - A CI/CD journey with Ansible and Terraform</t>
+          <t>TECOPS-2823 - How to leverage Cisco Catalyst Center to its greatest potential</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1536,29 +1652,33 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>162</v>
-      </c>
-      <c r="E31" t="n">
-        <v>81</v>
-      </c>
-      <c r="F31" t="n">
-        <v>50</v>
+        <v>176</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Elicium 2</t>
+          <t>Hall 8 - Room 13</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TECIOT-1000 - IoT Fundamentals Bootcamp</t>
+          <t>TECDCN-2131 - IaC with ACI - A CI/CD journey with Ansible and Terraform</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1568,33 +1688,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>95</v>
-      </c>
-      <c r="E32" t="n">
-        <v>17</v>
-      </c>
-      <c r="F32" t="n">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sessions Room E105</t>
+          <t>Elicium 2</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TECIPV-2265 - IPv6 in your Network</t>
+          <t>TECENT-2208 - Implementing SD-WAN Branch on-prem/ SASE Security</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1604,33 +1728,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>205</v>
-      </c>
-      <c r="E33" t="n">
-        <v>131</v>
-      </c>
-      <c r="F33" t="n">
-        <v>63</v>
+        <v>84</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sessions Room A3</t>
+          <t>Hall 8 - Room 4</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TECIPV-2000 - IPv6 on the Host</t>
+          <t>TECIOT-1000 - IoT Fundamentals Bootcamp</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1640,33 +1768,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>69</v>
-      </c>
-      <c r="E34" t="n">
-        <v>33</v>
-      </c>
-      <c r="F34" t="n">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sessions Room E107</t>
+          <t>Lab 3 - E105</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">TECOPS-2501 - Keeping your Cisco DNA Center Healthy </t>
+          <t>TECIPV-2001 - IPv6 beyond the Local Network</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1676,33 +1808,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>162</v>
-      </c>
-      <c r="E35" t="n">
-        <v>82</v>
-      </c>
-      <c r="F35" t="n">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Elicium 3</t>
+          <t>Session Room G102</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TECSPG-2432 - New Adventures in Wireless:  The Journey of WiFi6 and Private 5G Networks for the Enterprise</t>
+          <t>TECIPV-2000 - IPv6 in the Host and in the Local Network</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1712,33 +1848,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>66</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sessions Room G109</t>
+          <t>Session Room G102</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">TECCOL-2010 - News in Webex Cloud Collaboration Security </t>
+          <t xml:space="preserve">TECSEC-2573 - Journey to a successful Security Reference Architecture </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1748,33 +1888,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sessions Room G110</t>
+          <t>Session Room D403</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TECDCN-2840 - Next Generation ACI Data Center Architecture, Deployment and Operations</t>
+          <t>TECOPS-2582 - Managing and operating Segment Routing based networks with Cisco SDN solution</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1784,33 +1928,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08:30 - 18:30</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>180</v>
-      </c>
-      <c r="E38" t="n">
-        <v>75</v>
-      </c>
-      <c r="F38" t="n">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sessions Room A4</t>
+          <t>Lab 5 - E108</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TECDCN-2820 - Next Generation VXLAN Data Center Architecture, Deployment and Operation</t>
+          <t>TECSEC-2343 - Mastering Multi-Cloud Security: Safeguarding Your Applications in a Complex Cloud Landscape</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1820,33 +1968,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08:30 - 18:30</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>60</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sessions Room G102</t>
+          <t>Lab 7 - G105</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TECSPG-2435 - Routed Optical Networking Technical Deep Dive</t>
+          <t>TECOPS-2501 - Navigating the Network Maze:  Troubleshooting Cisco SD-Access Challenges</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1856,33 +2008,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08:45 - 18:45</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>32</v>
       </c>
-      <c r="E40" t="n">
-        <v>11</v>
-      </c>
-      <c r="F40" t="n">
-        <v>34</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sessions Room D402</t>
+          <t>Session Room D402</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TECSEC-2824 - Securing the Microsoft 365 Messaging Environment</t>
+          <t>TECSPG-2432 - New Adventures in Wireless:  The Journey of WiFi6 and Private 5G Networks for the Enterprise</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1892,33 +2048,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
-      </c>
-      <c r="E41" t="n">
-        <v>14</v>
-      </c>
-      <c r="F41" t="n">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sessions Room D301</t>
+          <t>Session Room G103</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TECENS-3820 - Software-Defined Access - Architecture Deep Dive</t>
+          <t>TECDCN-2438 - Next Generation ACI Data Center Architecture and Deployment Best Practices</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1928,33 +2088,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08:30 - 18:30</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>205</v>
-      </c>
-      <c r="E42" t="n">
-        <v>92</v>
-      </c>
-      <c r="F42" t="n">
-        <v>44</v>
+        <v>84</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sessions Room A1</t>
+          <t>Hall 8 - Room 3</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TECEWN-3369 - TAC stories:  WiFi networks that save lives... and your job</t>
+          <t>TECDCN-2482 - Next Generation Multi Data Center Infrastructure Design</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1964,33 +2128,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>180</v>
-      </c>
-      <c r="E43" t="n">
-        <v>108</v>
-      </c>
-      <c r="F43" t="n">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sessions Room A5</t>
+          <t>Hall 8 - Room 3</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TECSEC-2486 - Take your security stack to XDR and beyond, with SecureX</t>
+          <t>TECCLD-2194 - Oh no, you killed my Application, let us try and fix it together with Cisco FSO…</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2004,29 +2172,33 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
-      </c>
-      <c r="E44" t="n">
-        <v>23</v>
-      </c>
-      <c r="F44" t="n">
-        <v>76</v>
+        <v>176</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Labs 3</t>
+          <t>Hall 8 - Room 12</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TECDCN-3391 - The Essentials of ACI Troubleshooting by Example</t>
+          <t>TECSEC-2834 - Optimizing Cisco Security: Automate Provisioning and Configuration with Ansible and Terraform</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2036,33 +2208,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>08:30 - 13:00</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>152</v>
-      </c>
-      <c r="E45" t="n">
-        <v>57</v>
-      </c>
-      <c r="F45" t="n">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sessions Room E102</t>
+          <t>Session Room D404</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TECDCN-3381 - The Essentials of VXLAN/EVPN Troubleshooting By Example</t>
+          <t>TECCOM-2488 - Past, now and the future of UCS X-Series</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2072,33 +2248,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:00 - 18:30</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>162</v>
-      </c>
-      <c r="E46" t="n">
-        <v>104</v>
-      </c>
-      <c r="F46" t="n">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Elicium 3</t>
+          <t>Hall 8 - Room 2</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TECOPS-2001 - Transforming Network Operations by Migrating from Prime Infrastructure to Cisco DNA Center</t>
+          <t>TECOPS-2665 - Reaching Network Automation Level 5: Principles and Practice</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2108,33 +2288,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>60</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12</v>
-      </c>
-      <c r="F47" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Sessions Room G103</t>
+          <t>Lab 3 - E105</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TECCOL-2191 - Troubleshooting Cisco Webex Calling</t>
+          <t>TECSPG-2435 - Routed Optical Networking Technical Deep Dive</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2144,33 +2328,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>08:45 - 18:45</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>57</v>
-      </c>
-      <c r="E48" t="n">
         <v>24</v>
       </c>
-      <c r="F48" t="n">
-        <v>42</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sessions Room G107</t>
+          <t>Session Room D302</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TECSEC-3782 - Troubleshooting Firepower Threat Defense like a TAC Engineer</t>
+          <t>TECSEC-2422 - Secure Network Analytics in action: How to use SNA to identify attacks on wired &amp; wireless network</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2180,33 +2368,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>08:45 - 18:45</t>
+          <t>08:45 - 13:15</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>57</v>
-      </c>
-      <c r="E49" t="n">
-        <v>8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sessions Room G106</t>
+          <t>Lab 8 - G106</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TECCLD-2000 - Virtualise and Automate Cisco SD-WAN for Multicloud with FSO</t>
+          <t xml:space="preserve">TECEWN-2005 - Secure, Scalable, Enterprise Wi-Fi Deployment using Meraki Cloud </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2216,33 +2408,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>08:30 - 13:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
-      </c>
-      <c r="E50" t="n">
-        <v>25</v>
-      </c>
-      <c r="F50" t="n">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sessions Room D404</t>
+          <t>Session Room D401</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TECSEC-3781 - Walking on solid ISE - Advanced Use Cases and Deployment Best Practices</t>
+          <t>TECSEC-3503 - Segmenting industrial networks with Trustsec and Cisco Identity Services Engine</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2252,33 +2448,37 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>08:45 - 18:45</t>
+          <t>14:15 - 18:45</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>162</v>
-      </c>
-      <c r="E51" t="n">
-        <v>86</v>
-      </c>
-      <c r="F51" t="n">
-        <v>53</v>
+        <v>176</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Elicium 1</t>
+          <t>Hall 8 - Room 10</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Overcapacity</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TECCOL-2180 - Webex Collaboration Interoperability – Video and Calling Integrations</t>
+          <t>TECSEC-2532 - Setting Yourself for XDR (eXtended Detection &amp; Response) Success with Defensive Secure Architecture</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2288,33 +2488,37 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:15 - 18:45</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>57</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sessions Room G104</t>
+          <t>Lab 7 - G105</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TECCCT-3001 - Webex Contact Center Workshop: Differentiating your Customer Experience</t>
+          <t>TECMER-2626 - Seven Steps to Secure Your Cisco Meraki Network</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2324,62 +2528,590 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>08:45 - 13:15</t>
+          <t>14:00 - 18:30</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>22</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Labs 6</t>
+          <t>Session Room D303</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>TECENS-3820 - Software-Defined Access - Architecture Deep Dive</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>08:45 - 18:45</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>176</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hall 8 - Room 8</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TECENS-2349 - Software-Defined Access for Industry Verticals</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>08:30 - 13:00</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>18</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Session Room G110</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TECSEC-3163 - SSE - Cisco Secure Access for Architects and Implementation Engineers</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>08:45 - 13:15</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>30</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Lab 6 - G104</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECSEC-3305 - TAC on Secure Firewall  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>08:30 - 18:30</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>176</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hall 8 - Room 5</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TECEWN-3369 - TAC stories : WiFi networks that save lives...and your job</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>14:15 - 18:45</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>176</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hall 8 - Room 16</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TECDCN-3391 - The Essentials of ACI Troubleshooting</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>14:15 - 18:45</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>84</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hall 8 - Room 2</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TECDCN-3381 - The Essentials of VXLAN/EVPN Troubleshooting By Example</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>14:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>84</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hall 8 - Room 1</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TECMER-2021 - The Journey of Catalyst to the Meraki Cloud - From Design to Maintenance and Troubleshooting</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>08:30 - 13:00</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>24</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Session Room D303</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TECOPS-2001 - The Ultimate Guide to Install, Onboard, Operate your Campus Network with Cisco Catalyst Center</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>08:30 - 13:00</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Lab 9 - G107</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TECCOL-2191 - Troubleshooting Cisco Webex Calling</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>14:15 - 18:45</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>176</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hall 8 - Room 14</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TECSEC-2486 - Uplevel your security teams and operations with Cisco XDR</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>08:45 - 13:15</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>30</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Lab 10 - G109</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TECSEC-3416 - Walking on Solid ISE: Advanced use cases and deployment best practices</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>08:45 - 18:45</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>176</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hall 8 - Room 9</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TECCCT-3001 - Webex Contact Center Workshop: Differentiating your Customer Experience</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>08:30 - 13:00</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>14</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Session Room G111</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>TECSEC-2781 - Zero Trust: From understanding the risks to architecting a practical solution</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>08:45 - 18:45</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>57</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Sessions Room E108</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Ok</t>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>08:30 - 18:30</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>158</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Session Room E102</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
